--- a/data/trans_camb/POLIPATOLOGIA_Lim_2-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/POLIPATOLOGIA_Lim_2-Provincia-trans_camb.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -63,13 +63,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -504,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,9 +516,6 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
-    <col width="14" customWidth="1" min="9" max="9"/>
-    <col width="14" customWidth="1" min="10" max="10"/>
-    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -541,68 +531,50 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2012/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2016/2007</t>
+          <t>2016/2012</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2023/2007</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>2012/2007</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>2016/2007</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>2023/2007</t>
+          <t>2023/2012</t>
         </is>
       </c>
     </row>
@@ -615,14 +587,11 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
-      <c r="I3" s="2" t="n"/>
-      <c r="J3" s="2" t="n"/>
-      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>14,68</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>14,45</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,38</t>
+          <t>1,96</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>29,91</t>
+          <t>-5,33</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,87</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>24,58</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>22,2</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>23,08</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>19,81</t>
+          <t>-2,38</t>
         </is>
       </c>
     </row>
@@ -685,47 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 19,11</t>
+          <t>-6,17; 5,82</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>10,58; 19,09</t>
+          <t>-5,25; 6,94</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>11,55; 19,89</t>
+          <t>-6,52; 10,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>24,1; 35,87</t>
+          <t>-11,58; 1,77</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,01; 37,6</t>
+          <t>-3,95; 6,09</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>20,73; 28,26</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>18,71; 25,99</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>19,3; 26,58</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>16,92; 22,52</t>
+          <t>-7,31; 2,18</t>
         </is>
       </c>
     </row>
@@ -738,47 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-10,74%</t>
         </is>
       </c>
     </row>
@@ -791,54 +715,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,63; 50,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,56; 58,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,73; 40,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,09; 7,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,06; 30,39</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-29,67; 10,9</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,24</t>
+          <t>-4,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,34</t>
+          <t>-3,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>14,28</t>
+          <t>-3,23</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>30,07</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>26,84</t>
+          <t>-4,04</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>30,86</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>24,26</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20,22</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>22,54</t>
+          <t>-1,72</t>
         </is>
       </c>
     </row>
@@ -901,47 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,37; 22,12</t>
+          <t>-9,49; 0,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10,46; 16,78</t>
+          <t>-9,18; 0,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,98; 17,85</t>
+          <t>-9,53; 2,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,64; 34,26</t>
+          <t>-5,21; 5,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>23,04; 30,98</t>
+          <t>-7,8; 0,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>27,77; 34,54</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>21,39; 27,47</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>17,61; 22,96</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>20,04; 25,33</t>
+          <t>-5,59; 2,06</t>
         </is>
       </c>
     </row>
@@ -954,47 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-26,87%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-21,73%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,75%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>2,62%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-16,64%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-7,09%</t>
         </is>
       </c>
     </row>
@@ -1007,54 +871,39 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,62; 1,62</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,41; 3,98</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,01; 8,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,95; 20,33</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,25; 0,14</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-21,65; 9,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>20,82</t>
+          <t>-8,94</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>23,38</t>
+          <t>-3,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>26,56</t>
+          <t>6,37</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>22,97</t>
+          <t>-6,18</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>32,93</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>23,76</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>17,58</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>28,39</t>
+          <t>4,63</t>
         </is>
       </c>
     </row>
@@ -1117,47 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>16,38; 25,75</t>
+          <t>-14,53; -3,1</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,69; 15,25</t>
+          <t>-3,74; 8,92</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,24; 27,86</t>
+          <t>-9,99; 3,67</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>21,45; 31,24</t>
+          <t>-0,17; 12,66</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>18,61; 28,76</t>
+          <t>-10,64; -1,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>28,95; 36,89</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>20,41; 27,21</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>14,9; 20,87</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>25,5; 31,38</t>
+          <t>0,14; 9,46</t>
         </is>
       </c>
     </row>
@@ -1170,47 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-42,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>12,3%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,5%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>23,98%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-26,03%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>19,48%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-60,1; -16,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,78; 51,06</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-34,26; 15,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,93; 55,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,23; -7,72</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>0,36; 46,25</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>14,86</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>16,61</t>
+          <t>10,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,33</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>31,78</t>
+          <t>-4,41</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>31,24</t>
+          <t>0,6</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>27,37</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="inlineStr">
-        <is>
-          <t>23,49</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>24,09</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>26,56</t>
+          <t>3,07</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>11,57; 19,1</t>
+          <t>-3,87; 7,26</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,82; 20,52</t>
+          <t>4,26; 17,6</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>20,05; 31,72</t>
+          <t>-7,66; 6,43</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>27,44; 36,33</t>
+          <t>-16,17; 4,3</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,25; 36,2</t>
+          <t>-4,2; 4,94</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,02; 34,65</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>20,5; 26,68</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>20,92; 27,53</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>20,11; 31,05</t>
+          <t>-4,69; 8,4</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,76%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>70,47%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-1,71%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-13,89%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>13,09%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,49; 62,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>24,31; 146,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,07; 22,81</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,69; 14,61</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,68; 23,16</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-18,23; 38,18</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1225,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>21,92</t>
+          <t>-6,63</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>15,28</t>
+          <t>-8,31</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>13,61</t>
+          <t>-17,82</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>47,08</t>
+          <t>-24,33</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>29,26</t>
+          <t>-12,31</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>22,75</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="inlineStr">
-        <is>
-          <t>34,7</t>
-        </is>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>22,39</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="inlineStr">
-        <is>
-          <t>19,01</t>
+          <t>-15,69</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1263,32 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,26; 28,27</t>
+          <t>-14,4; 1,08</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>10,89; 20,42</t>
+          <t>-15,45; -1,03</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>9,88; 17,6</t>
+          <t>-26,09; -8,39</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>40,35; 52,96</t>
+          <t>-39,27; -15,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>23,53; 35,83</t>
+          <t>-18,69; -6,2</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>12,17; 29,53</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="inlineStr">
-        <is>
-          <t>29,89; 39,51</t>
-        </is>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>18,65; 26,36</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="inlineStr">
-        <is>
-          <t>13,09; 23,01</t>
+          <t>-23,62; -10,32</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1301,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-30,26%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-37,91%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-37,84%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-51,68%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-35,47%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K22" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-45,21%</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1339,39 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-56,4; 6,4</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,78; -4,91</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,93; -19,83</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,69; -36,67</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,27; -19,89</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K23" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-63,59; -32,91</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1712,47 +1381,32 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>23,38</t>
+          <t>-4,92</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>18,45</t>
+          <t>1,87</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>25,24</t>
+          <t>-6,71</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>33,7</t>
+          <t>3,44</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>26,99</t>
+          <t>-5,79</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>37,14</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>28,59</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>22,8</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>31,05</t>
+          <t>2,46</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1419,32 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>18,8; 29,08</t>
+          <t>-11,62; 3,02</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>14,05; 23,92</t>
+          <t>-4,72; 8,09</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21,03; 30,17</t>
+          <t>-14,96; 1,13</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>28,25; 39,25</t>
+          <t>-3,8; 10,95</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>21,67; 32,64</t>
+          <t>-11,17; -0,23</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>32,5; 42,04</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>24,46; 32,19</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>19,21; 26,85</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>27,89; 34,57</t>
+          <t>-2,7; 7,39</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1457,32 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-21,06%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-19,9%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>10,21%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-20,25%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>8,59%</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1495,39 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,13; 15,24</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,33; 40,92</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,72; 3,72</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,45; 37,03</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,56; -0,85</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-8,82; 28,71</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1928,47 +1537,32 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>15,76</t>
+          <t>-1,63</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>14,13</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>22,63</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>27,43</t>
+          <t>5,82</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>21,34</t>
+          <t>-3,9</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>33,25</t>
-        </is>
-      </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>21,73</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>17,83</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>28,75</t>
+          <t>7,02</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1575,32 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>12,82; 18,86</t>
+          <t>-5,64; 2,46</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>11,29; 17,18</t>
+          <t>2,45; 11,86</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>19,15; 26,33</t>
+          <t>-11,16; -0,93</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>24,03; 31,07</t>
+          <t>-10,96; 17,8</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>17,91; 24,47</t>
+          <t>-7,01; -0,69</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>15,58; 44,98</t>
-        </is>
-      </c>
-      <c r="I29" s="2" t="inlineStr">
-        <is>
-          <t>19,52; 23,98</t>
-        </is>
-      </c>
-      <c r="J29" s="2" t="inlineStr">
-        <is>
-          <t>15,89; 19,94</t>
-        </is>
-      </c>
-      <c r="K29" s="2" t="inlineStr">
-        <is>
-          <t>17,87; 34,12</t>
+          <t>-4,37; 12,67</t>
         </is>
       </c>
     </row>
@@ -2034,47 +1613,32 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-10,33%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>43,56%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-22,19%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-17,94%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K30" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>32,31%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +1651,32 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-31,45; 18,15</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,2; 85,42</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,93; -3,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,47; 67,12</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,8; -3,33</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K31" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-18,21; 60,39</t>
         </is>
       </c>
     </row>
@@ -2144,47 +1693,32 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>13,99</t>
+          <t>1,95</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>15,94</t>
+          <t>-4,68</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>9,31</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>23,42</t>
+          <t>2,72</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>23,92</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>26,14</t>
-        </is>
-      </c>
-      <c r="I32" s="2" t="inlineStr">
-        <is>
-          <t>18,83</t>
-        </is>
-      </c>
-      <c r="J32" s="2" t="inlineStr">
-        <is>
-          <t>20,05</t>
-        </is>
-      </c>
-      <c r="K32" s="2" t="inlineStr">
-        <is>
-          <t>16,65</t>
+          <t>-2,19</t>
         </is>
       </c>
     </row>
@@ -2197,47 +1731,32 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>11,38; 16,62</t>
+          <t>-1,87; 5,57</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>13,22; 19,01</t>
+          <t>-11,31; -0,15</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>4,01; 13,27</t>
+          <t>-4,1; 4,84</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>20,46; 26,7</t>
+          <t>-1,33; 7,1</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>21,0; 26,78</t>
+          <t>-1,63; 4,16</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>23,55; 29,0</t>
-        </is>
-      </c>
-      <c r="I33" s="2" t="inlineStr">
-        <is>
-          <t>17,04; 21,0</t>
-        </is>
-      </c>
-      <c r="J33" s="2" t="inlineStr">
-        <is>
-          <t>18,01; 22,05</t>
-        </is>
-      </c>
-      <c r="K33" s="2" t="inlineStr">
-        <is>
-          <t>10,1; 20,32</t>
+          <t>-8,77; 1,72</t>
         </is>
       </c>
     </row>
@@ -2250,47 +1769,32 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-33,44%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>11,62%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K34" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>-11,62%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +1807,32 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,94; 44,43</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,03; -1,76</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,77; 23,47</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,26; 33,87</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,01; 24,18</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K35" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-44,95; 9,11</t>
         </is>
       </c>
     </row>
@@ -2360,47 +1849,32 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>17,0</t>
+          <t>-2,08</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>0,2</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>17,2</t>
+          <t>-3,42</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>29,19</t>
+          <t>0,43</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>25,77</t>
+          <t>-2,75</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>29,62</t>
-        </is>
-      </c>
-      <c r="I36" s="2" t="inlineStr">
-        <is>
-          <t>23,21</t>
-        </is>
-      </c>
-      <c r="J36" s="2" t="inlineStr">
-        <is>
-          <t>20,46</t>
-        </is>
-      </c>
-      <c r="K36" s="2" t="inlineStr">
-        <is>
-          <t>23,63</t>
+          <t>0,42</t>
         </is>
       </c>
     </row>
@@ -2413,47 +1887,32 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>15,65; 18,48</t>
+          <t>-3,75; -0,2</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>13,71; 16,23</t>
+          <t>-3,54; 2,42</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>13,49; 19,0</t>
+          <t>-5,66; -1,28</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>27,74; 30,61</t>
+          <t>-5,24; 3,53</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>24,22; 27,51</t>
+          <t>-4,16; -1,38</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>24,67; 32,29</t>
-        </is>
-      </c>
-      <c r="I37" s="2" t="inlineStr">
-        <is>
-          <t>22,12; 24,29</t>
-        </is>
-      </c>
-      <c r="J37" s="2" t="inlineStr">
-        <is>
-          <t>19,49; 21,47</t>
-        </is>
-      </c>
-      <c r="K37" s="2" t="inlineStr">
-        <is>
-          <t>20,42; 25,37</t>
+          <t>-2,99; 2,48</t>
         </is>
       </c>
     </row>
@@ -2466,47 +1925,32 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-12,23%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,17%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,71%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>-11,83%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I38" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="J38" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="K38" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
+          <t>1,81%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +1963,32 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,93; -1,36</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,35; 14,75</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,8; -4,53</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,76; 12,49</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-17,43; -6,21</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K39" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-12,59; 10,84</t>
         </is>
       </c>
     </row>
@@ -2574,12 +2003,12 @@
   <mergeCells count="13">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A36:A39"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
